--- a/2-Empirical-Evidence/raw_data/South_Dakota.xlsx
+++ b/2-Empirical-Evidence/raw_data/South_Dakota.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN460030000000003</t>
@@ -1330,10 +1346,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>1.7</v>
@@ -1428,10 +1456,20 @@
       <c r="AF5" t="n" s="10">
         <v>2.9</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>23.0</v>
@@ -1526,10 +1564,20 @@
       <c r="AF6" t="n" s="8">
         <v>42.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>1302.0</v>
@@ -1624,10 +1672,20 @@
       <c r="AF7" t="n" s="8">
         <v>1430.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>1454.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>1461.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>1477.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>1325.0</v>
@@ -1722,10 +1780,20 @@
       <c r="AF8" t="n" s="8">
         <v>1472.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>1483.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>1488.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>1501.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>4.1</v>
@@ -1820,10 +1888,20 @@
       <c r="AF9" t="n" s="10">
         <v>3.4</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>379.0</v>
@@ -1918,10 +1996,20 @@
       <c r="AF10" t="n" s="8">
         <v>322.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>223.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>174.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>170.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>8839.0</v>
@@ -2016,10 +2104,20 @@
       <c r="AF11" t="n" s="8">
         <v>9040.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>9052.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>9081.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>9072.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>9218.0</v>
@@ -2114,10 +2212,20 @@
       <c r="AF12" t="n" s="8">
         <v>9362.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>9275.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>9255.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>9242.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>5.2</v>
@@ -2212,10 +2320,20 @@
       <c r="AF13" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>61.0</v>
@@ -2310,10 +2428,20 @@
       <c r="AF14" t="n" s="8">
         <v>49.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>1112.0</v>
@@ -2408,10 +2536,20 @@
       <c r="AF15" t="n" s="8">
         <v>1027.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>1016.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>1032.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>1039.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>1173.0</v>
@@ -2506,10 +2644,20 @@
       <c r="AF16" t="n" s="8">
         <v>1076.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>1054.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>1066.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>1072.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>1.2</v>
@@ -2604,10 +2752,20 @@
       <c r="AF17" t="n" s="10">
         <v>3.6</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>35.0</v>
@@ -2702,10 +2860,20 @@
       <c r="AF18" t="n" s="8">
         <v>104.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>68.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>53.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>55.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>2988.0</v>
@@ -2800,10 +2968,20 @@
       <c r="AF19" t="n" s="8">
         <v>2750.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>2756.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>2795.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>2818.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>3023.0</v>
@@ -2898,10 +3076,20 @@
       <c r="AF20" t="n" s="8">
         <v>2854.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>2824.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>2848.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>2873.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>4.9</v>
@@ -2996,10 +3184,20 @@
       <c r="AF21" t="n" s="10">
         <v>3.9</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>689.0</v>
@@ -3094,10 +3292,20 @@
       <c r="AF22" t="n" s="8">
         <v>729.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>503.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>386.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>383.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>13360.0</v>
@@ -3192,10 +3400,20 @@
       <c r="AF23" t="n" s="8">
         <v>17783.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>18070.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>18717.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>18930.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>14049.0</v>
@@ -3290,10 +3508,20 @@
       <c r="AF24" t="n" s="8">
         <v>18512.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>18573.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>19103.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>19313.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>5.3</v>
@@ -3388,10 +3616,20 @@
       <c r="AF25" t="n" s="10">
         <v>4.0</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>1050.0</v>
@@ -3486,10 +3724,20 @@
       <c r="AF26" t="n" s="8">
         <v>813.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>523.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>441.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>401.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>18855.0</v>
@@ -3584,10 +3832,20 @@
       <c r="AF27" t="n" s="8">
         <v>19766.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>20009.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>19647.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>19678.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>19905.0</v>
@@ -3682,10 +3940,20 @@
       <c r="AF28" t="n" s="8">
         <v>20579.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>20532.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>20088.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>20079.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>2.2</v>
@@ -3780,10 +4048,20 @@
       <c r="AF29" t="n" s="10">
         <v>4.0</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>61.0</v>
@@ -3878,10 +4156,20 @@
       <c r="AF30" t="n" s="8">
         <v>99.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>54.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>2751.0</v>
@@ -3976,10 +4264,20 @@
       <c r="AF31" t="n" s="8">
         <v>2372.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>2510.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>2620.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>2576.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>2812.0</v>
@@ -4074,10 +4372,20 @@
       <c r="AF32" t="n" s="8">
         <v>2471.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>2564.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>2664.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>2621.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>9.0</v>
@@ -4172,10 +4480,20 @@
       <c r="AF33" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>54.0</v>
@@ -4270,10 +4588,20 @@
       <c r="AF34" t="n" s="8">
         <v>51.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>544.0</v>
@@ -4368,10 +4696,20 @@
       <c r="AF35" t="n" s="8">
         <v>640.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>666.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>692.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>670.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>598.0</v>
@@ -4466,10 +4804,20 @@
       <c r="AF36" t="n" s="8">
         <v>691.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>697.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>724.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>701.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>3.4</v>
@@ -4564,10 +4912,20 @@
       <c r="AF37" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>124.0</v>
@@ -4662,10 +5020,20 @@
       <c r="AF38" t="n" s="8">
         <v>242.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>143.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>101.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>3533.0</v>
@@ -4760,10 +5128,20 @@
       <c r="AF39" t="n" s="8">
         <v>4746.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>4871.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>4959.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>5181.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>3657.0</v>
@@ -4858,10 +5236,20 @@
       <c r="AF40" t="n" s="8">
         <v>4988.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>5014.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>5054.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>5282.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>2.8</v>
@@ -4956,10 +5344,20 @@
       <c r="AF41" t="n" s="10">
         <v>3.2</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>27.0</v>
@@ -5054,10 +5452,20 @@
       <c r="AF42" t="n" s="8">
         <v>25.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>928.0</v>
@@ -5152,10 +5560,20 @@
       <c r="AF43" t="n" s="8">
         <v>759.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>752.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>754.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>754.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>955.0</v>
@@ -5250,10 +5668,20 @@
       <c r="AF44" t="n" s="8">
         <v>784.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>773.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>774.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>773.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>3.7</v>
@@ -5348,10 +5776,20 @@
       <c r="AF45" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>143.0</v>
@@ -5446,10 +5884,20 @@
       <c r="AF46" t="n" s="8">
         <v>216.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>119.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>85.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>3688.0</v>
@@ -5544,10 +5992,20 @@
       <c r="AF47" t="n" s="8">
         <v>3558.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>3684.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>3727.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>3828.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>3831.0</v>
@@ -5642,10 +6100,20 @@
       <c r="AF48" t="n" s="8">
         <v>3774.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>3803.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>3812.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>3914.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>3.3</v>
@@ -5740,10 +6208,20 @@
       <c r="AF49" t="n" s="10">
         <v>3.6</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>66.0</v>
@@ -5838,10 +6316,20 @@
       <c r="AF50" t="n" s="8">
         <v>77.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>61.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>1914.0</v>
@@ -5936,10 +6424,20 @@
       <c r="AF51" t="n" s="8">
         <v>2078.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>1870.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>1910.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>2066.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>1980.0</v>
@@ -6034,10 +6532,20 @@
       <c r="AF52" t="n" s="8">
         <v>2155.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>1931.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>1953.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>2109.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>4.4</v>
@@ -6132,10 +6640,20 @@
       <c r="AF53" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>305.0</v>
@@ -6230,10 +6748,20 @@
       <c r="AF54" t="n" s="8">
         <v>292.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>184.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>154.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>151.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>6574.0</v>
@@ -6328,10 +6856,20 @@
       <c r="AF55" t="n" s="8">
         <v>6862.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>7141.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>7191.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>7145.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>6879.0</v>
@@ -6426,10 +6964,20 @@
       <c r="AF56" t="n" s="8">
         <v>7154.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>7325.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>7345.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>7296.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>4.3</v>
@@ -6524,10 +7072,20 @@
       <c r="AF57" t="n" s="10">
         <v>4.4</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>522.0</v>
@@ -6622,10 +7180,20 @@
       <c r="AF58" t="n" s="8">
         <v>683.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>408.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>311.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>292.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>11653.0</v>
@@ -6720,10 +7288,20 @@
       <c r="AF59" t="n" s="8">
         <v>14776.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>15284.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>15659.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>15872.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>12175.0</v>
@@ -6818,10 +7396,20 @@
       <c r="AF60" t="n" s="8">
         <v>15459.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>15692.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>15970.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>16164.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>19.6</v>
@@ -6916,10 +7504,20 @@
       <c r="AF61" t="n" s="10">
         <v>4.4</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>322.0</v>
@@ -7014,10 +7612,20 @@
       <c r="AF62" t="n" s="8">
         <v>58.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>52.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>1322.0</v>
@@ -7112,10 +7720,20 @@
       <c r="AF63" t="n" s="8">
         <v>1264.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>1255.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>1241.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>1247.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>1644.0</v>
@@ -7210,10 +7828,20 @@
       <c r="AF64" t="n" s="8">
         <v>1322.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>1307.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>1278.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>1286.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>2.5</v>
@@ -7308,10 +7936,20 @@
       <c r="AF65" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>88.0</v>
@@ -7406,10 +8044,20 @@
       <c r="AF66" t="n" s="8">
         <v>221.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>140.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>117.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>107.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>3381.0</v>
@@ -7504,10 +8152,20 @@
       <c r="AF67" t="n" s="8">
         <v>3824.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>3989.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>4091.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>4145.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>3469.0</v>
@@ -7602,10 +8260,20 @@
       <c r="AF68" t="n" s="8">
         <v>4045.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>4129.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>4208.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>4252.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>2.6</v>
@@ -7700,10 +8368,20 @@
       <c r="AF69" t="n" s="10">
         <v>3.7</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>236.0</v>
@@ -7798,10 +8476,20 @@
       <c r="AF70" t="n" s="8">
         <v>410.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>256.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>202.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>191.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>8733.0</v>
@@ -7896,10 +8584,20 @@
       <c r="AF71" t="n" s="8">
         <v>10528.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>10683.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>10866.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>10906.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>8969.0</v>
@@ -7994,10 +8692,20 @@
       <c r="AF72" t="n" s="8">
         <v>10938.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>10939.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>11068.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>11097.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>5.0</v>
@@ -8092,10 +8800,20 @@
       <c r="AF73" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>151.0</v>
@@ -8190,10 +8908,20 @@
       <c r="AF74" t="n" s="8">
         <v>138.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>79.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>2897.0</v>
@@ -8288,10 +9016,20 @@
       <c r="AF75" t="n" s="8">
         <v>2556.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>2579.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>2604.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>2587.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>3048.0</v>
@@ -8386,10 +9124,20 @@
       <c r="AF76" t="n" s="8">
         <v>2694.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>2675.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>2683.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>2659.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>4.0</v>
@@ -8484,10 +9232,20 @@
       <c r="AF77" t="n" s="10">
         <v>4.8</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>86.0</v>
@@ -8582,10 +9340,20 @@
       <c r="AF78" t="n" s="8">
         <v>111.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>81.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>64.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>2084.0</v>
@@ -8680,10 +9448,20 @@
       <c r="AF79" t="n" s="8">
         <v>2214.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>2208.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>2238.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>2257.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>2170.0</v>
@@ -8778,10 +9556,20 @@
       <c r="AF80" t="n" s="8">
         <v>2325.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>2289.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>2303.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>2321.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>11.1</v>
@@ -8876,10 +9664,20 @@
       <c r="AF81" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>230.0</v>
@@ -8974,10 +9772,20 @@
       <c r="AF82" t="n" s="8">
         <v>155.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>111.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>128.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>1839.0</v>
@@ -9072,10 +9880,20 @@
       <c r="AF83" t="n" s="8">
         <v>2149.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>2155.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>2149.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>2166.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>2069.0</v>
@@ -9170,10 +9988,20 @@
       <c r="AF84" t="n" s="8">
         <v>2304.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>2266.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>2277.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>2296.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>2.7</v>
@@ -9268,10 +10096,20 @@
       <c r="AF85" t="n" s="10">
         <v>2.6</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>42.0</v>
@@ -9366,10 +10204,20 @@
       <c r="AF86" t="n" s="8">
         <v>40.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>1531.0</v>
@@ -9464,10 +10312,20 @@
       <c r="AF87" t="n" s="8">
         <v>1511.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>1503.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>1475.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>1463.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>1573.0</v>
@@ -9562,10 +10420,20 @@
       <c r="AF88" t="n" s="8">
         <v>1551.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>1535.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>1504.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>1492.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>3.6</v>
@@ -9660,10 +10528,20 @@
       <c r="AF89" t="n" s="10">
         <v>2.6</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>76.0</v>
@@ -9758,10 +10636,20 @@
       <c r="AF90" t="n" s="8">
         <v>52.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>2060.0</v>
@@ -9856,10 +10744,20 @@
       <c r="AF91" t="n" s="8">
         <v>1938.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>1968.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>1958.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>1969.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>2136.0</v>
@@ -9954,10 +10852,20 @@
       <c r="AF92" t="n" s="8">
         <v>1990.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>2013.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>1995.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>2010.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>4.4</v>
@@ -10052,10 +10960,20 @@
       <c r="AF93" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>144.0</v>
@@ -10150,10 +11068,20 @@
       <c r="AF94" t="n" s="8">
         <v>161.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>105.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>71.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>77.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>3155.0</v>
@@ -10248,10 +11176,20 @@
       <c r="AF95" t="n" s="8">
         <v>2850.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>2971.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>2983.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>2926.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>3299.0</v>
@@ -10346,10 +11284,20 @@
       <c r="AF96" t="n" s="8">
         <v>3011.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>3076.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>3054.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>3003.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>1.8</v>
@@ -10444,10 +11392,20 @@
       <c r="AF97" t="n" s="10">
         <v>3.1</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>22.0</v>
@@ -10542,10 +11500,20 @@
       <c r="AF98" t="n" s="8">
         <v>32.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>1234.0</v>
@@ -10640,10 +11608,20 @@
       <c r="AF99" t="n" s="8">
         <v>1004.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>1031.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>1060.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>1079.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>1256.0</v>
@@ -10738,10 +11716,20 @@
       <c r="AF100" t="n" s="8">
         <v>1036.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>1055.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>1081.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>1099.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>4.2</v>
@@ -10836,10 +11824,20 @@
       <c r="AF101" t="n" s="10">
         <v>3.6</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>175.0</v>
@@ -10934,10 +11932,20 @@
       <c r="AF102" t="n" s="8">
         <v>156.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>109.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>3991.0</v>
@@ -11032,10 +12040,20 @@
       <c r="AF103" t="n" s="8">
         <v>4213.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>4222.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>4275.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>4349.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>4166.0</v>
@@ -11130,10 +12148,20 @@
       <c r="AF104" t="n" s="8">
         <v>4369.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>4347.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>4383.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>4458.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>2.7</v>
@@ -11228,10 +12256,20 @@
       <c r="AF105" t="n" s="10">
         <v>3.4</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>67.0</v>
@@ -11326,10 +12364,20 @@
       <c r="AF106" t="n" s="8">
         <v>69.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>2395.0</v>
@@ -11424,10 +12472,20 @@
       <c r="AF107" t="n" s="8">
         <v>1973.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>2028.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>2098.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>2081.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>2462.0</v>
@@ -11522,10 +12580,20 @@
       <c r="AF108" t="n" s="8">
         <v>2042.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>2077.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>2137.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>2121.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>2.6</v>
@@ -11620,10 +12688,20 @@
       <c r="AF109" t="n" s="10">
         <v>2.3</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>31.0</v>
@@ -11718,10 +12796,20 @@
       <c r="AF110" t="n" s="8">
         <v>24.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>1159.0</v>
@@ -11816,10 +12904,20 @@
       <c r="AF111" t="n" s="8">
         <v>1034.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>1018.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>1051.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>1062.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>1190.0</v>
@@ -11914,10 +13012,20 @@
       <c r="AF112" t="n" s="8">
         <v>1058.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>1042.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>1071.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>1081.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>3.8</v>
@@ -12012,10 +13120,20 @@
       <c r="AF113" t="n" s="10">
         <v>3.1</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>83.0</v>
@@ -12110,10 +13228,20 @@
       <c r="AF114" t="n" s="8">
         <v>103.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>77.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>68.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>2102.0</v>
@@ -12208,10 +13336,20 @@
       <c r="AF115" t="n" s="8">
         <v>3261.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>3396.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>3516.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>3622.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>2185.0</v>
@@ -12306,10 +13444,20 @@
       <c r="AF116" t="n" s="8">
         <v>3364.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>3473.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>3584.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>3687.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>1.8</v>
@@ -12404,10 +13552,20 @@
       <c r="AF117" t="n" s="10">
         <v>2.3</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>37.0</v>
@@ -12502,10 +13660,20 @@
       <c r="AF118" t="n" s="8">
         <v>41.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>1982.0</v>
@@ -12600,10 +13768,20 @@
       <c r="AF119" t="n" s="8">
         <v>1709.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>1714.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>1759.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>1792.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>2019.0</v>
@@ -12698,10 +13876,20 @@
       <c r="AF120" t="n" s="8">
         <v>1750.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>1750.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>1790.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>1821.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>2.5</v>
@@ -12796,10 +13984,20 @@
       <c r="AF121" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>39.0</v>
@@ -12894,10 +14092,20 @@
       <c r="AF122" t="n" s="8">
         <v>80.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>1506.0</v>
@@ -12992,10 +14200,20 @@
       <c r="AF123" t="n" s="8">
         <v>1677.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>1702.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>1740.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>1752.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>1545.0</v>
@@ -13090,10 +14308,20 @@
       <c r="AF124" t="n" s="8">
         <v>1757.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>1762.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>1785.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>1792.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>2.4</v>
@@ -13188,10 +14416,20 @@
       <c r="AF125" t="n" s="10">
         <v>3.2</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>21.0</v>
@@ -13286,10 +14524,20 @@
       <c r="AF126" t="n" s="8">
         <v>23.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>848.0</v>
@@ -13384,10 +14632,20 @@
       <c r="AF127" t="n" s="8">
         <v>697.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>696.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>727.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>713.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>869.0</v>
@@ -13482,10 +14740,20 @@
       <c r="AF128" t="n" s="8">
         <v>720.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>712.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>741.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>727.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>2.5</v>
@@ -13580,10 +14848,20 @@
       <c r="AF129" t="n" s="10">
         <v>3.0</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>212.0</v>
@@ -13678,10 +14956,20 @@
       <c r="AF130" t="n" s="8">
         <v>297.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>205.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>163.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>156.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>8218.0</v>
@@ -13776,10 +15064,20 @@
       <c r="AF131" t="n" s="8">
         <v>9583.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>9706.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>9747.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>9867.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>8430.0</v>
@@ -13874,10 +15172,20 @@
       <c r="AF132" t="n" s="8">
         <v>9880.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>9911.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>9910.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>10023.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>2.1</v>
@@ -13972,10 +15280,20 @@
       <c r="AF133" t="n" s="10">
         <v>3.4</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>82.0</v>
@@ -14070,10 +15388,20 @@
       <c r="AF134" t="n" s="8">
         <v>121.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>79.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>76.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>3791.0</v>
@@ -14168,10 +15496,20 @@
       <c r="AF135" t="n" s="8">
         <v>3488.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>3511.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>3539.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>3601.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>3873.0</v>
@@ -14266,10 +15604,20 @@
       <c r="AF136" t="n" s="8">
         <v>3609.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>3606.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>3618.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>3677.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>3.6</v>
@@ -14364,10 +15712,20 @@
       <c r="AF137" t="n" s="10">
         <v>2.8</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>29.0</v>
@@ -14462,10 +15820,20 @@
       <c r="AF138" t="n" s="8">
         <v>19.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>787.0</v>
@@ -14560,10 +15928,20 @@
       <c r="AF139" t="n" s="8">
         <v>650.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>640.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>645.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>643.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>816.0</v>
@@ -14658,10 +16036,20 @@
       <c r="AF140" t="n" s="8">
         <v>669.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>655.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>659.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>655.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>5.7</v>
@@ -14756,10 +16144,20 @@
       <c r="AF141" t="n" s="10">
         <v>3.8</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>67.0</v>
@@ -14854,10 +16252,20 @@
       <c r="AF142" t="n" s="8">
         <v>46.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>1114.0</v>
@@ -14952,10 +16360,20 @@
       <c r="AF143" t="n" s="8">
         <v>1162.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>1170.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>1182.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>1221.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>1181.0</v>
@@ -15050,10 +16468,20 @@
       <c r="AF144" t="n" s="8">
         <v>1208.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>1216.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>1218.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>1262.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>3.3</v>
@@ -15148,10 +16576,20 @@
       <c r="AF145" t="n" s="10">
         <v>2.2</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>36.0</v>
@@ -15246,10 +16684,20 @@
       <c r="AF146" t="n" s="8">
         <v>26.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>1064.0</v>
@@ -15344,10 +16792,20 @@
       <c r="AF147" t="n" s="8">
         <v>1172.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>1314.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>1309.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>1176.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>1100.0</v>
@@ -15442,10 +16900,20 @@
       <c r="AF148" t="n" s="8">
         <v>1198.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>1337.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>1327.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>1196.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>4.9</v>
@@ -15540,10 +17008,20 @@
       <c r="AF149" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>37.0</v>
@@ -15638,10 +17116,20 @@
       <c r="AF150" t="n" s="8">
         <v>17.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>714.0</v>
@@ -15736,10 +17224,20 @@
       <c r="AF151" t="n" s="8">
         <v>505.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>506.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>514.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>510.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>751.0</v>
@@ -15834,10 +17332,20 @@
       <c r="AF152" t="n" s="8">
         <v>522.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>520.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>526.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>523.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>2.4</v>
@@ -15932,10 +17440,20 @@
       <c r="AF153" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>66.0</v>
@@ -16030,10 +17548,20 @@
       <c r="AF154" t="n" s="8">
         <v>88.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>66.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>52.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>52.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>2635.0</v>
@@ -16128,10 +17656,20 @@
       <c r="AF155" t="n" s="8">
         <v>2587.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>2658.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>2751.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>2704.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>2701.0</v>
@@ -16226,10 +17764,20 @@
       <c r="AF156" t="n" s="8">
         <v>2675.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>2724.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>2803.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>2756.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>4.5</v>
@@ -16324,10 +17872,20 @@
       <c r="AF157" t="n" s="10">
         <v>3.4</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>251.0</v>
@@ -16422,10 +17980,20 @@
       <c r="AF158" t="n" s="8">
         <v>221.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>168.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>135.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>128.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>5282.0</v>
@@ -16520,10 +18088,20 @@
       <c r="AF159" t="n" s="8">
         <v>6243.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>6385.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>6576.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>6609.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>5533.0</v>
@@ -16618,10 +18196,20 @@
       <c r="AF160" t="n" s="8">
         <v>6464.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>6553.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>6711.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>6737.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="7">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B161" t="n" s="10">
         <v>4.2</v>
@@ -16716,10 +18304,20 @@
       <c r="AF161" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG161" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AH161" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI161" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ161"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B162" t="n" s="8">
         <v>488.0</v>
@@ -16814,10 +18412,20 @@
       <c r="AF162" t="n" s="8">
         <v>767.0</v>
       </c>
+      <c r="AG162" t="n" s="8">
+        <v>356.0</v>
+      </c>
+      <c r="AH162" t="n" s="8">
+        <v>264.0</v>
+      </c>
+      <c r="AI162" t="n" s="8">
+        <v>271.0</v>
+      </c>
+      <c r="AJ162"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="7">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B163" t="n" s="8">
         <v>11015.0</v>
@@ -16912,10 +18520,20 @@
       <c r="AF163" t="n" s="8">
         <v>12799.0</v>
       </c>
+      <c r="AG163" t="n" s="8">
+        <v>13463.0</v>
+      </c>
+      <c r="AH163" t="n" s="8">
+        <v>13864.0</v>
+      </c>
+      <c r="AI163" t="n" s="8">
+        <v>14280.0</v>
+      </c>
+      <c r="AJ163"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="7">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B164" t="n" s="8">
         <v>11503.0</v>
@@ -17010,10 +18628,20 @@
       <c r="AF164" t="n" s="8">
         <v>13566.0</v>
       </c>
+      <c r="AG164" t="n" s="8">
+        <v>13819.0</v>
+      </c>
+      <c r="AH164" t="n" s="8">
+        <v>14128.0</v>
+      </c>
+      <c r="AI164" t="n" s="8">
+        <v>14551.0</v>
+      </c>
+      <c r="AJ164"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="7">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B165" t="n" s="10">
         <v>2.4</v>
@@ -17108,10 +18736,20 @@
       <c r="AF165" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG165" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AH165" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AI165" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AJ165"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="7">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B166" t="n" s="8">
         <v>200.0</v>
@@ -17206,10 +18844,20 @@
       <c r="AF166" t="n" s="8">
         <v>1182.0</v>
       </c>
+      <c r="AG166" t="n" s="8">
+        <v>765.0</v>
+      </c>
+      <c r="AH166" t="n" s="8">
+        <v>604.0</v>
+      </c>
+      <c r="AI166" t="n" s="8">
+        <v>614.0</v>
+      </c>
+      <c r="AJ166"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="7">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B167" t="n" s="8">
         <v>8233.0</v>
@@ -17304,10 +18952,20 @@
       <c r="AF167" t="n" s="8">
         <v>35075.0</v>
       </c>
+      <c r="AG167" t="n" s="8">
+        <v>36121.0</v>
+      </c>
+      <c r="AH167" t="n" s="8">
+        <v>36946.0</v>
+      </c>
+      <c r="AI167" t="n" s="8">
+        <v>37614.0</v>
+      </c>
+      <c r="AJ167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B168" t="n" s="8">
         <v>8433.0</v>
@@ -17402,10 +19060,20 @@
       <c r="AF168" t="n" s="8">
         <v>36257.0</v>
       </c>
+      <c r="AG168" t="n" s="8">
+        <v>36886.0</v>
+      </c>
+      <c r="AH168" t="n" s="8">
+        <v>37550.0</v>
+      </c>
+      <c r="AI168" t="n" s="8">
+        <v>38228.0</v>
+      </c>
+      <c r="AJ168"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="7">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B169" t="n" s="10">
         <v>4.0</v>
@@ -17500,10 +19168,20 @@
       <c r="AF169" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG169" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH169" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI169" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ169"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B170" t="n" s="8">
         <v>75.0</v>
@@ -17598,10 +19276,20 @@
       <c r="AF170" t="n" s="8">
         <v>87.0</v>
       </c>
+      <c r="AG170" t="n" s="8">
+        <v>63.0</v>
+      </c>
+      <c r="AH170" t="n" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="AI170" t="n" s="8">
+        <v>48.0</v>
+      </c>
+      <c r="AJ170"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B171" t="n" s="8">
         <v>1780.0</v>
@@ -17696,10 +19384,20 @@
       <c r="AF171" t="n" s="8">
         <v>1580.0</v>
       </c>
+      <c r="AG171" t="n" s="8">
+        <v>1615.0</v>
+      </c>
+      <c r="AH171" t="n" s="8">
+        <v>1645.0</v>
+      </c>
+      <c r="AI171" t="n" s="8">
+        <v>1662.0</v>
+      </c>
+      <c r="AJ171"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B172" t="n" s="8">
         <v>1855.0</v>
@@ -17794,10 +19492,20 @@
       <c r="AF172" t="n" s="8">
         <v>1667.0</v>
       </c>
+      <c r="AG172" t="n" s="8">
+        <v>1678.0</v>
+      </c>
+      <c r="AH172" t="n" s="8">
+        <v>1687.0</v>
+      </c>
+      <c r="AI172" t="n" s="8">
+        <v>1710.0</v>
+      </c>
+      <c r="AJ172"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B173" t="n" s="10">
         <v>2.9</v>
@@ -17892,10 +19600,20 @@
       <c r="AF173" t="n" s="10">
         <v>3.4</v>
       </c>
+      <c r="AG173" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH173" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AI173" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ173"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B174" t="n" s="8">
         <v>78.0</v>
@@ -17990,10 +19708,20 @@
       <c r="AF174" t="n" s="8">
         <v>101.0</v>
       </c>
+      <c r="AG174" t="n" s="8">
+        <v>71.0</v>
+      </c>
+      <c r="AH174" t="n" s="8">
+        <v>51.0</v>
+      </c>
+      <c r="AI174" t="n" s="8">
+        <v>54.0</v>
+      </c>
+      <c r="AJ174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B175" t="n" s="8">
         <v>2624.0</v>
@@ -18088,10 +19816,20 @@
       <c r="AF175" t="n" s="8">
         <v>2896.0</v>
       </c>
+      <c r="AG175" t="n" s="8">
+        <v>2983.0</v>
+      </c>
+      <c r="AH175" t="n" s="8">
+        <v>3063.0</v>
+      </c>
+      <c r="AI175" t="n" s="8">
+        <v>3118.0</v>
+      </c>
+      <c r="AJ175"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="7">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B176" t="n" s="8">
         <v>2702.0</v>
@@ -18186,10 +19924,20 @@
       <c r="AF176" t="n" s="8">
         <v>2997.0</v>
       </c>
+      <c r="AG176" t="n" s="8">
+        <v>3054.0</v>
+      </c>
+      <c r="AH176" t="n" s="8">
+        <v>3114.0</v>
+      </c>
+      <c r="AI176" t="n" s="8">
+        <v>3172.0</v>
+      </c>
+      <c r="AJ176"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B177" t="n" s="10">
         <v>3.1</v>
@@ -18284,10 +20032,20 @@
       <c r="AF177" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG177" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH177" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI177" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ177"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B178" t="n" s="8">
         <v>46.0</v>
@@ -18382,10 +20140,20 @@
       <c r="AF178" t="n" s="8">
         <v>46.0</v>
       </c>
+      <c r="AG178" t="n" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="AH178" t="n" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="AI178" t="n" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AJ178"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="7">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B179" t="n" s="8">
         <v>1434.0</v>
@@ -18480,10 +20248,20 @@
       <c r="AF179" t="n" s="8">
         <v>949.0</v>
       </c>
+      <c r="AG179" t="n" s="8">
+        <v>931.0</v>
+      </c>
+      <c r="AH179" t="n" s="8">
+        <v>953.0</v>
+      </c>
+      <c r="AI179" t="n" s="8">
+        <v>963.0</v>
+      </c>
+      <c r="AJ179"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B180" t="n" s="8">
         <v>1480.0</v>
@@ -18578,10 +20356,20 @@
       <c r="AF180" t="n" s="8">
         <v>995.0</v>
       </c>
+      <c r="AG180" t="n" s="8">
+        <v>964.0</v>
+      </c>
+      <c r="AH180" t="n" s="8">
+        <v>979.0</v>
+      </c>
+      <c r="AI180" t="n" s="8">
+        <v>987.0</v>
+      </c>
+      <c r="AJ180"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="7">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B181" t="n" s="10">
         <v>4.3</v>
@@ -18676,10 +20464,20 @@
       <c r="AF181" t="n" s="10">
         <v>4.3</v>
       </c>
+      <c r="AG181" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH181" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI181" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ181"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="7">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B182" t="n" s="8">
         <v>94.0</v>
@@ -18774,10 +20572,20 @@
       <c r="AF182" t="n" s="8">
         <v>103.0</v>
       </c>
+      <c r="AG182" t="n" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="AH182" t="n" s="8">
+        <v>67.0</v>
+      </c>
+      <c r="AI182" t="n" s="8">
+        <v>63.0</v>
+      </c>
+      <c r="AJ182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B183" t="n" s="8">
         <v>2096.0</v>
@@ -18872,10 +20680,20 @@
       <c r="AF183" t="n" s="8">
         <v>2317.0</v>
       </c>
+      <c r="AG183" t="n" s="8">
+        <v>2348.0</v>
+      </c>
+      <c r="AH183" t="n" s="8">
+        <v>2407.0</v>
+      </c>
+      <c r="AI183" t="n" s="8">
+        <v>2421.0</v>
+      </c>
+      <c r="AJ183"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B184" t="n" s="8">
         <v>2190.0</v>
@@ -18970,10 +20788,20 @@
       <c r="AF184" t="n" s="8">
         <v>2420.0</v>
       </c>
+      <c r="AG184" t="n" s="8">
+        <v>2420.0</v>
+      </c>
+      <c r="AH184" t="n" s="8">
+        <v>2474.0</v>
+      </c>
+      <c r="AI184" t="n" s="8">
+        <v>2484.0</v>
+      </c>
+      <c r="AJ184"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B185" t="n" s="10">
         <v>3.4</v>
@@ -19068,10 +20896,20 @@
       <c r="AF185" t="n" s="10">
         <v>4.5</v>
       </c>
+      <c r="AG185" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AH185" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI185" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ185"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B186" t="n" s="8">
         <v>331.0</v>
@@ -19166,10 +21004,20 @@
       <c r="AF186" t="n" s="8">
         <v>623.0</v>
       </c>
+      <c r="AG186" t="n" s="8">
+        <v>364.0</v>
+      </c>
+      <c r="AH186" t="n" s="8">
+        <v>293.0</v>
+      </c>
+      <c r="AI186" t="n" s="8">
+        <v>300.0</v>
+      </c>
+      <c r="AJ186"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B187" t="n" s="8">
         <v>9284.0</v>
@@ -19264,10 +21112,20 @@
       <c r="AF187" t="n" s="8">
         <v>13246.0</v>
       </c>
+      <c r="AG187" t="n" s="8">
+        <v>13839.0</v>
+      </c>
+      <c r="AH187" t="n" s="8">
+        <v>14142.0</v>
+      </c>
+      <c r="AI187" t="n" s="8">
+        <v>14317.0</v>
+      </c>
+      <c r="AJ187"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B188" t="n" s="8">
         <v>9615.0</v>
@@ -19362,10 +21220,20 @@
       <c r="AF188" t="n" s="8">
         <v>13869.0</v>
       </c>
+      <c r="AG188" t="n" s="8">
+        <v>14203.0</v>
+      </c>
+      <c r="AH188" t="n" s="8">
+        <v>14435.0</v>
+      </c>
+      <c r="AI188" t="n" s="8">
+        <v>14617.0</v>
+      </c>
+      <c r="AJ188"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="7">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B189" t="n" s="10">
         <v>6.1</v>
@@ -19460,10 +21328,20 @@
       <c r="AF189" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG189" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH189" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI189" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ189"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="7">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B190" t="n" s="8">
         <v>49.0</v>
@@ -19558,10 +21436,20 @@
       <c r="AF190" t="n" s="8">
         <v>40.0</v>
       </c>
+      <c r="AG190" t="n" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="AH190" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AI190" t="n" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AJ190"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B191" t="n" s="8">
         <v>748.0</v>
@@ -19656,10 +21544,20 @@
       <c r="AF191" t="n" s="8">
         <v>671.0</v>
       </c>
+      <c r="AG191" t="n" s="8">
+        <v>697.0</v>
+      </c>
+      <c r="AH191" t="n" s="8">
+        <v>725.0</v>
+      </c>
+      <c r="AI191" t="n" s="8">
+        <v>733.0</v>
+      </c>
+      <c r="AJ191"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="7">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B192" t="n" s="8">
         <v>797.0</v>
@@ -19754,10 +21652,20 @@
       <c r="AF192" t="n" s="8">
         <v>711.0</v>
       </c>
+      <c r="AG192" t="n" s="8">
+        <v>725.0</v>
+      </c>
+      <c r="AH192" t="n" s="8">
+        <v>747.0</v>
+      </c>
+      <c r="AI192" t="n" s="8">
+        <v>757.0</v>
+      </c>
+      <c r="AJ192"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="7">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B193" t="n" s="10">
         <v>2.5</v>
@@ -19852,10 +21760,20 @@
       <c r="AF193" t="n" s="10">
         <v>4.3</v>
       </c>
+      <c r="AG193" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AH193" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI193" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ193"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="7">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B194" t="n" s="8">
         <v>40.0</v>
@@ -19950,10 +21868,20 @@
       <c r="AF194" t="n" s="8">
         <v>49.0</v>
       </c>
+      <c r="AG194" t="n" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="AH194" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AI194" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AJ194"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="7">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B195" t="n" s="8">
         <v>1534.0</v>
@@ -20048,10 +21976,20 @@
       <c r="AF195" t="n" s="8">
         <v>1099.0</v>
       </c>
+      <c r="AG195" t="n" s="8">
+        <v>1137.0</v>
+      </c>
+      <c r="AH195" t="n" s="8">
+        <v>1202.0</v>
+      </c>
+      <c r="AI195" t="n" s="8">
+        <v>1258.0</v>
+      </c>
+      <c r="AJ195"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B196" t="n" s="8">
         <v>1574.0</v>
@@ -20146,10 +22084,20 @@
       <c r="AF196" t="n" s="8">
         <v>1148.0</v>
       </c>
+      <c r="AG196" t="n" s="8">
+        <v>1167.0</v>
+      </c>
+      <c r="AH196" t="n" s="8">
+        <v>1224.0</v>
+      </c>
+      <c r="AI196" t="n" s="8">
+        <v>1280.0</v>
+      </c>
+      <c r="AJ196"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="7">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B197" t="n" s="10">
         <v>2.6</v>
@@ -20244,10 +22192,20 @@
       <c r="AF197" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG197" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AH197" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI197" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ197"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="7">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B198" t="n" s="8">
         <v>1851.0</v>
@@ -20342,10 +22300,20 @@
       <c r="AF198" t="n" s="8">
         <v>4642.0</v>
       </c>
+      <c r="AG198" t="n" s="8">
+        <v>2763.0</v>
+      </c>
+      <c r="AH198" t="n" s="8">
+        <v>2113.0</v>
+      </c>
+      <c r="AI198" t="n" s="8">
+        <v>2168.0</v>
+      </c>
+      <c r="AJ198"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="7">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B199" t="n" s="8">
         <v>69288.0</v>
@@ -20440,10 +22408,20 @@
       <c r="AF199" t="n" s="8">
         <v>108738.0</v>
       </c>
+      <c r="AG199" t="n" s="8">
+        <v>111975.0</v>
+      </c>
+      <c r="AH199" t="n" s="8">
+        <v>114506.0</v>
+      </c>
+      <c r="AI199" t="n" s="8">
+        <v>116581.0</v>
+      </c>
+      <c r="AJ199"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="7">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B200" t="n" s="8">
         <v>71139.0</v>
@@ -20538,10 +22516,20 @@
       <c r="AF200" t="n" s="8">
         <v>113380.0</v>
       </c>
+      <c r="AG200" t="n" s="8">
+        <v>114738.0</v>
+      </c>
+      <c r="AH200" t="n" s="8">
+        <v>116619.0</v>
+      </c>
+      <c r="AI200" t="n" s="8">
+        <v>118749.0</v>
+      </c>
+      <c r="AJ200"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="7">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B201" t="n" s="10">
         <v>4.3</v>
@@ -20636,10 +22624,20 @@
       <c r="AF201" t="n" s="10">
         <v>4.7</v>
       </c>
+      <c r="AG201" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH201" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI201" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ201"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="7">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B202" t="n" s="8">
         <v>141.0</v>
@@ -20734,10 +22732,20 @@
       <c r="AF202" t="n" s="8">
         <v>188.0</v>
       </c>
+      <c r="AG202" t="n" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="AH202" t="n" s="8">
+        <v>87.0</v>
+      </c>
+      <c r="AI202" t="n" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="AJ202"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="7">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B203" t="n" s="8">
         <v>3128.0</v>
@@ -20832,10 +22840,20 @@
       <c r="AF203" t="n" s="8">
         <v>3834.0</v>
       </c>
+      <c r="AG203" t="n" s="8">
+        <v>3912.0</v>
+      </c>
+      <c r="AH203" t="n" s="8">
+        <v>3931.0</v>
+      </c>
+      <c r="AI203" t="n" s="8">
+        <v>3985.0</v>
+      </c>
+      <c r="AJ203"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="7">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B204" t="n" s="8">
         <v>3269.0</v>
@@ -20930,10 +22948,20 @@
       <c r="AF204" t="n" s="8">
         <v>4022.0</v>
       </c>
+      <c r="AG204" t="n" s="8">
+        <v>4006.0</v>
+      </c>
+      <c r="AH204" t="n" s="8">
+        <v>4018.0</v>
+      </c>
+      <c r="AI204" t="n" s="8">
+        <v>4067.0</v>
+      </c>
+      <c r="AJ204"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="7">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B205" t="n" s="10">
         <v>13.5</v>
@@ -21028,10 +23056,20 @@
       <c r="AF205" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG205" t="n" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="AH205" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI205" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AJ205"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="7">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B206" t="n" s="8">
         <v>301.0</v>
@@ -21126,10 +23164,20 @@
       <c r="AF206" t="n" s="8">
         <v>331.0</v>
       </c>
+      <c r="AG206" t="n" s="8">
+        <v>281.0</v>
+      </c>
+      <c r="AH206" t="n" s="8">
+        <v>182.0</v>
+      </c>
+      <c r="AI206" t="n" s="8">
+        <v>210.0</v>
+      </c>
+      <c r="AJ206"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="7">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B207" t="n" s="8">
         <v>1931.0</v>
@@ -21224,10 +23272,20 @@
       <c r="AF207" t="n" s="8">
         <v>3444.0</v>
       </c>
+      <c r="AG207" t="n" s="8">
+        <v>3572.0</v>
+      </c>
+      <c r="AH207" t="n" s="8">
+        <v>3604.0</v>
+      </c>
+      <c r="AI207" t="n" s="8">
+        <v>3383.0</v>
+      </c>
+      <c r="AJ207"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="7">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B208" t="n" s="8">
         <v>2232.0</v>
@@ -21322,10 +23380,20 @@
       <c r="AF208" t="n" s="8">
         <v>3775.0</v>
       </c>
+      <c r="AG208" t="n" s="8">
+        <v>3853.0</v>
+      </c>
+      <c r="AH208" t="n" s="8">
+        <v>3786.0</v>
+      </c>
+      <c r="AI208" t="n" s="8">
+        <v>3593.0</v>
+      </c>
+      <c r="AJ208"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="7">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B209" t="n" s="10">
         <v>3.1</v>
@@ -21420,10 +23488,20 @@
       <c r="AF209" t="n" s="10">
         <v>4.8</v>
       </c>
+      <c r="AG209" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH209" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI209" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ209"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B210" t="n" s="8">
         <v>1253.0</v>
@@ -21518,10 +23596,20 @@
       <c r="AF210" t="n" s="8">
         <v>2743.0</v>
       </c>
+      <c r="AG210" t="n" s="8">
+        <v>1581.0</v>
+      </c>
+      <c r="AH210" t="n" s="8">
+        <v>1182.0</v>
+      </c>
+      <c r="AI210" t="n" s="8">
+        <v>1147.0</v>
+      </c>
+      <c r="AJ210"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B211" t="n" s="8">
         <v>38754.0</v>
@@ -21616,10 +23704,20 @@
       <c r="AF211" t="n" s="8">
         <v>54642.0</v>
       </c>
+      <c r="AG211" t="n" s="8">
+        <v>57071.0</v>
+      </c>
+      <c r="AH211" t="n" s="8">
+        <v>58307.0</v>
+      </c>
+      <c r="AI211" t="n" s="8">
+        <v>59051.0</v>
+      </c>
+      <c r="AJ211"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="7">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B212" t="n" s="8">
         <v>40007.0</v>
@@ -21714,10 +23812,20 @@
       <c r="AF212" t="n" s="8">
         <v>57385.0</v>
       </c>
+      <c r="AG212" t="n" s="8">
+        <v>58652.0</v>
+      </c>
+      <c r="AH212" t="n" s="8">
+        <v>59489.0</v>
+      </c>
+      <c r="AI212" t="n" s="8">
+        <v>60198.0</v>
+      </c>
+      <c r="AJ212"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="7">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B213" t="n" s="10">
         <v>2.4</v>
@@ -21812,10 +23920,20 @@
       <c r="AF213" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG213" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH213" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI213" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ213"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="7">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B214" t="n" s="8">
         <v>52.0</v>
@@ -21910,10 +24028,20 @@
       <c r="AF214" t="n" s="8">
         <v>45.0</v>
       </c>
+      <c r="AG214" t="n" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="AH214" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AI214" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AJ214"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="7">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B215" t="n" s="8">
         <v>2119.0</v>
@@ -22008,10 +24136,20 @@
       <c r="AF215" t="n" s="8">
         <v>1328.0</v>
       </c>
+      <c r="AG215" t="n" s="8">
+        <v>1359.0</v>
+      </c>
+      <c r="AH215" t="n" s="8">
+        <v>1404.0</v>
+      </c>
+      <c r="AI215" t="n" s="8">
+        <v>1401.0</v>
+      </c>
+      <c r="AJ215"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="7">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B216" t="n" s="8">
         <v>2171.0</v>
@@ -22106,10 +24244,20 @@
       <c r="AF216" t="n" s="8">
         <v>1373.0</v>
       </c>
+      <c r="AG216" t="n" s="8">
+        <v>1394.0</v>
+      </c>
+      <c r="AH216" t="n" s="8">
+        <v>1433.0</v>
+      </c>
+      <c r="AI216" t="n" s="8">
+        <v>1430.0</v>
+      </c>
+      <c r="AJ216"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="7">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B217" t="n" s="10">
         <v>2.6</v>
@@ -22204,10 +24352,20 @@
       <c r="AF217" t="n" s="10">
         <v>2.9</v>
       </c>
+      <c r="AG217" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AH217" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI217" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ217"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="7">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B218" t="n" s="8">
         <v>39.0</v>
@@ -22302,10 +24460,20 @@
       <c r="AF218" t="n" s="8">
         <v>30.0</v>
       </c>
+      <c r="AG218" t="n" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="AH218" t="n" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="AI218" t="n" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="AJ218"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="7">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B219" t="n" s="8">
         <v>1489.0</v>
@@ -22400,10 +24568,20 @@
       <c r="AF219" t="n" s="8">
         <v>995.0</v>
       </c>
+      <c r="AG219" t="n" s="8">
+        <v>1026.0</v>
+      </c>
+      <c r="AH219" t="n" s="8">
+        <v>1017.0</v>
+      </c>
+      <c r="AI219" t="n" s="8">
+        <v>1034.0</v>
+      </c>
+      <c r="AJ219"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="7">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B220" t="n" s="8">
         <v>1528.0</v>
@@ -22498,10 +24676,20 @@
       <c r="AF220" t="n" s="8">
         <v>1025.0</v>
       </c>
+      <c r="AG220" t="n" s="8">
+        <v>1053.0</v>
+      </c>
+      <c r="AH220" t="n" s="8">
+        <v>1040.0</v>
+      </c>
+      <c r="AI220" t="n" s="8">
+        <v>1059.0</v>
+      </c>
+      <c r="AJ220"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="7">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B221" t="n" s="10">
         <v>5.7</v>
@@ -22596,10 +24784,20 @@
       <c r="AF221" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG221" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH221" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI221" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ221"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="7">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B222" t="n" s="8">
         <v>261.0</v>
@@ -22694,10 +24892,20 @@
       <c r="AF222" t="n" s="8">
         <v>275.0</v>
       </c>
+      <c r="AG222" t="n" s="8">
+        <v>181.0</v>
+      </c>
+      <c r="AH222" t="n" s="8">
+        <v>149.0</v>
+      </c>
+      <c r="AI222" t="n" s="8">
+        <v>145.0</v>
+      </c>
+      <c r="AJ222"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="7">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B223" t="n" s="8">
         <v>4335.0</v>
@@ -22792,10 +25000,20 @@
       <c r="AF223" t="n" s="8">
         <v>4544.0</v>
       </c>
+      <c r="AG223" t="n" s="8">
+        <v>4503.0</v>
+      </c>
+      <c r="AH223" t="n" s="8">
+        <v>4482.0</v>
+      </c>
+      <c r="AI223" t="n" s="8">
+        <v>4594.0</v>
+      </c>
+      <c r="AJ223"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="7">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B224" t="n" s="8">
         <v>4596.0</v>
@@ -22890,10 +25108,20 @@
       <c r="AF224" t="n" s="8">
         <v>4819.0</v>
       </c>
+      <c r="AG224" t="n" s="8">
+        <v>4684.0</v>
+      </c>
+      <c r="AH224" t="n" s="8">
+        <v>4631.0</v>
+      </c>
+      <c r="AI224" t="n" s="8">
+        <v>4739.0</v>
+      </c>
+      <c r="AJ224"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="7">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B225" t="n" s="10">
         <v>1.7</v>
@@ -22988,10 +25216,20 @@
       <c r="AF225" t="n" s="10">
         <v>3.6</v>
       </c>
+      <c r="AG225" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH225" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI225" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ225"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="7">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B226" t="n" s="8">
         <v>22.0</v>
@@ -23086,10 +25324,20 @@
       <c r="AF226" t="n" s="8">
         <v>42.0</v>
       </c>
+      <c r="AG226" t="n" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="AH226" t="n" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="AI226" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AJ226"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="7">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B227" t="n" s="8">
         <v>1241.0</v>
@@ -23184,10 +25432,20 @@
       <c r="AF227" t="n" s="8">
         <v>1119.0</v>
       </c>
+      <c r="AG227" t="n" s="8">
+        <v>1154.0</v>
+      </c>
+      <c r="AH227" t="n" s="8">
+        <v>1183.0</v>
+      </c>
+      <c r="AI227" t="n" s="8">
+        <v>1199.0</v>
+      </c>
+      <c r="AJ227"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="7">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B228" t="n" s="8">
         <v>1263.0</v>
@@ -23282,10 +25540,20 @@
       <c r="AF228" t="n" s="8">
         <v>1161.0</v>
       </c>
+      <c r="AG228" t="n" s="8">
+        <v>1184.0</v>
+      </c>
+      <c r="AH228" t="n" s="8">
+        <v>1208.0</v>
+      </c>
+      <c r="AI228" t="n" s="8">
+        <v>1221.0</v>
+      </c>
+      <c r="AJ228"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="7">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B229" t="n" s="10">
         <v>2.5</v>
@@ -23380,10 +25648,20 @@
       <c r="AF229" t="n" s="10">
         <v>3.6</v>
       </c>
+      <c r="AG229" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH229" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI229" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ229"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="7">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B230" t="n" s="8">
         <v>91.0</v>
@@ -23478,10 +25756,20 @@
       <c r="AF230" t="n" s="8">
         <v>111.0</v>
       </c>
+      <c r="AG230" t="n" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="AH230" t="n" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="AI230" t="n" s="8">
+        <v>66.0</v>
+      </c>
+      <c r="AJ230"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="7">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B231" t="n" s="8">
         <v>3519.0</v>
@@ -23576,10 +25864,20 @@
       <c r="AF231" t="n" s="8">
         <v>2982.0</v>
       </c>
+      <c r="AG231" t="n" s="8">
+        <v>2991.0</v>
+      </c>
+      <c r="AH231" t="n" s="8">
+        <v>2964.0</v>
+      </c>
+      <c r="AI231" t="n" s="8">
+        <v>2946.0</v>
+      </c>
+      <c r="AJ231"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="7">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B232" t="n" s="8">
         <v>3610.0</v>
@@ -23674,10 +25972,20 @@
       <c r="AF232" t="n" s="8">
         <v>3093.0</v>
       </c>
+      <c r="AG232" t="n" s="8">
+        <v>3073.0</v>
+      </c>
+      <c r="AH232" t="n" s="8">
+        <v>3036.0</v>
+      </c>
+      <c r="AI232" t="n" s="8">
+        <v>3012.0</v>
+      </c>
+      <c r="AJ232"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="7">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B233" t="n" s="10">
         <v>4.2</v>
@@ -23772,10 +26080,20 @@
       <c r="AF233" t="n" s="10">
         <v>3.4</v>
       </c>
+      <c r="AG233" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH233" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI233" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ233"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="7">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B234" t="n" s="8">
         <v>60.0</v>
@@ -23870,10 +26188,20 @@
       <c r="AF234" t="n" s="8">
         <v>66.0</v>
       </c>
+      <c r="AG234" t="n" s="8">
+        <v>48.0</v>
+      </c>
+      <c r="AH234" t="n" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="AI234" t="n" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="AJ234"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="7">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B235" t="n" s="8">
         <v>1364.0</v>
@@ -23968,10 +26296,20 @@
       <c r="AF235" t="n" s="8">
         <v>1848.0</v>
       </c>
+      <c r="AG235" t="n" s="8">
+        <v>1873.0</v>
+      </c>
+      <c r="AH235" t="n" s="8">
+        <v>1894.0</v>
+      </c>
+      <c r="AI235" t="n" s="8">
+        <v>1920.0</v>
+      </c>
+      <c r="AJ235"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="7">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B236" t="n" s="8">
         <v>1424.0</v>
@@ -24066,10 +26404,20 @@
       <c r="AF236" t="n" s="8">
         <v>1914.0</v>
       </c>
+      <c r="AG236" t="n" s="8">
+        <v>1921.0</v>
+      </c>
+      <c r="AH236" t="n" s="8">
+        <v>1929.0</v>
+      </c>
+      <c r="AI236" t="n" s="8">
+        <v>1955.0</v>
+      </c>
+      <c r="AJ236"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="7">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B237" t="n" s="10">
         <v>2.2</v>
@@ -24164,10 +26512,20 @@
       <c r="AF237" t="n" s="10">
         <v>2.5</v>
       </c>
+      <c r="AG237" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH237" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AI237" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AJ237"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="7">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B238" t="n" s="8">
         <v>20.0</v>
@@ -24262,10 +26620,20 @@
       <c r="AF238" t="n" s="8">
         <v>20.0</v>
       </c>
+      <c r="AG238" t="n" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="AH238" t="n" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="AI238" t="n" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="AJ238"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="7">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B239" t="n" s="8">
         <v>874.0</v>
@@ -24360,10 +26728,20 @@
       <c r="AF239" t="n" s="8">
         <v>772.0</v>
       </c>
+      <c r="AG239" t="n" s="8">
+        <v>785.0</v>
+      </c>
+      <c r="AH239" t="n" s="8">
+        <v>802.0</v>
+      </c>
+      <c r="AI239" t="n" s="8">
+        <v>815.0</v>
+      </c>
+      <c r="AJ239"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="7">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B240" t="n" s="8">
         <v>894.0</v>
@@ -24458,10 +26836,20 @@
       <c r="AF240" t="n" s="8">
         <v>792.0</v>
       </c>
+      <c r="AG240" t="n" s="8">
+        <v>811.0</v>
+      </c>
+      <c r="AH240" t="n" s="8">
+        <v>815.0</v>
+      </c>
+      <c r="AI240" t="n" s="8">
+        <v>828.0</v>
+      </c>
+      <c r="AJ240"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="7">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B241" t="n" s="10">
         <v>10.0</v>
@@ -24556,10 +26944,20 @@
       <c r="AF241" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG241" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH241" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI241" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ241"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="7">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B242" t="n" s="8">
         <v>242.0</v>
@@ -24654,10 +27052,20 @@
       <c r="AF242" t="n" s="8">
         <v>177.0</v>
       </c>
+      <c r="AG242" t="n" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="AH242" t="n" s="8">
+        <v>110.0</v>
+      </c>
+      <c r="AI242" t="n" s="8">
+        <v>102.0</v>
+      </c>
+      <c r="AJ242"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="7">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B243" t="n" s="8">
         <v>2177.0</v>
@@ -24752,10 +27160,20 @@
       <c r="AF243" t="n" s="8">
         <v>2880.0</v>
       </c>
+      <c r="AG243" t="n" s="8">
+        <v>2924.0</v>
+      </c>
+      <c r="AH243" t="n" s="8">
+        <v>2894.0</v>
+      </c>
+      <c r="AI243" t="n" s="8">
+        <v>2932.0</v>
+      </c>
+      <c r="AJ243"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="7">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B244" t="n" s="8">
         <v>2419.0</v>
@@ -24850,10 +27268,20 @@
       <c r="AF244" t="n" s="8">
         <v>3057.0</v>
       </c>
+      <c r="AG244" t="n" s="8">
+        <v>3049.0</v>
+      </c>
+      <c r="AH244" t="n" s="8">
+        <v>3004.0</v>
+      </c>
+      <c r="AI244" t="n" s="8">
+        <v>3034.0</v>
+      </c>
+      <c r="AJ244"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="7">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B245" t="n" s="10">
         <v>2.8</v>
@@ -24948,10 +27376,20 @@
       <c r="AF245" t="n" s="10">
         <v>2.8</v>
       </c>
+      <c r="AG245" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AH245" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AI245" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AJ245"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="7">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B246" t="n" s="8">
         <v>91.0</v>
@@ -25046,10 +27484,20 @@
       <c r="AF246" t="n" s="8">
         <v>83.0</v>
       </c>
+      <c r="AG246" t="n" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="AH246" t="n" s="8">
+        <v>51.0</v>
+      </c>
+      <c r="AI246" t="n" s="8">
+        <v>50.0</v>
+      </c>
+      <c r="AJ246"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="7">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B247" t="n" s="8">
         <v>3204.0</v>
@@ -25144,10 +27592,20 @@
       <c r="AF247" t="n" s="8">
         <v>2919.0</v>
       </c>
+      <c r="AG247" t="n" s="8">
+        <v>2954.0</v>
+      </c>
+      <c r="AH247" t="n" s="8">
+        <v>3020.0</v>
+      </c>
+      <c r="AI247" t="n" s="8">
+        <v>3031.0</v>
+      </c>
+      <c r="AJ247"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="7">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B248" t="n" s="8">
         <v>3295.0</v>
@@ -25242,10 +27700,20 @@
       <c r="AF248" t="n" s="8">
         <v>3002.0</v>
       </c>
+      <c r="AG248" t="n" s="8">
+        <v>3014.0</v>
+      </c>
+      <c r="AH248" t="n" s="8">
+        <v>3071.0</v>
+      </c>
+      <c r="AI248" t="n" s="8">
+        <v>3081.0</v>
+      </c>
+      <c r="AJ248"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="7">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B249" t="n" s="10">
         <v>2.3</v>
@@ -25340,10 +27808,20 @@
       <c r="AF249" t="n" s="10">
         <v>3.6</v>
       </c>
+      <c r="AG249" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH249" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI249" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ249"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="7">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B250" t="n" s="8">
         <v>96.0</v>
@@ -25438,10 +27916,20 @@
       <c r="AF250" t="n" s="8">
         <v>164.0</v>
       </c>
+      <c r="AG250" t="n" s="8">
+        <v>104.0</v>
+      </c>
+      <c r="AH250" t="n" s="8">
+        <v>87.0</v>
+      </c>
+      <c r="AI250" t="n" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="AJ250"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="7">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B251" t="n" s="8">
         <v>4160.0</v>
@@ -25536,10 +28024,20 @@
       <c r="AF251" t="n" s="8">
         <v>4413.0</v>
       </c>
+      <c r="AG251" t="n" s="8">
+        <v>4553.0</v>
+      </c>
+      <c r="AH251" t="n" s="8">
+        <v>4670.0</v>
+      </c>
+      <c r="AI251" t="n" s="8">
+        <v>4748.0</v>
+      </c>
+      <c r="AJ251"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="7">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B252" t="n" s="8">
         <v>4256.0</v>
@@ -25634,10 +28132,20 @@
       <c r="AF252" t="n" s="8">
         <v>4577.0</v>
       </c>
+      <c r="AG252" t="n" s="8">
+        <v>4657.0</v>
+      </c>
+      <c r="AH252" t="n" s="8">
+        <v>4757.0</v>
+      </c>
+      <c r="AI252" t="n" s="8">
+        <v>4838.0</v>
+      </c>
+      <c r="AJ252"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="7">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B253" t="n" s="10">
         <v>7.3</v>
@@ -25732,10 +28240,20 @@
       <c r="AF253" t="n" s="10">
         <v>4.5</v>
       </c>
+      <c r="AG253" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH253" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI253" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ253"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="7">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B254" t="n" s="8">
         <v>244.0</v>
@@ -25830,10 +28348,20 @@
       <c r="AF254" t="n" s="8">
         <v>393.0</v>
       </c>
+      <c r="AG254" t="n" s="8">
+        <v>259.0</v>
+      </c>
+      <c r="AH254" t="n" s="8">
+        <v>188.0</v>
+      </c>
+      <c r="AI254" t="n" s="8">
+        <v>186.0</v>
+      </c>
+      <c r="AJ254"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="7">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B255" t="n" s="8">
         <v>3111.0</v>
@@ -25928,10 +28456,20 @@
       <c r="AF255" t="n" s="8">
         <v>8253.0</v>
       </c>
+      <c r="AG255" t="n" s="8">
+        <v>8375.0</v>
+      </c>
+      <c r="AH255" t="n" s="8">
+        <v>8509.0</v>
+      </c>
+      <c r="AI255" t="n" s="8">
+        <v>8540.0</v>
+      </c>
+      <c r="AJ255"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="7">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B256" t="n" s="8">
         <v>3355.0</v>
@@ -26026,10 +28564,20 @@
       <c r="AF256" t="n" s="8">
         <v>8646.0</v>
       </c>
+      <c r="AG256" t="n" s="8">
+        <v>8634.0</v>
+      </c>
+      <c r="AH256" t="n" s="8">
+        <v>8697.0</v>
+      </c>
+      <c r="AI256" t="n" s="8">
+        <v>8726.0</v>
+      </c>
+      <c r="AJ256"/>
     </row>
     <row r="257">
       <c r="A257" t="s" s="7">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B257" t="n" s="10">
         <v>3.1</v>
@@ -26124,10 +28672,20 @@
       <c r="AF257" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG257" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH257" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI257" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ257"/>
     </row>
     <row r="258">
       <c r="A258" t="s" s="7">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B258" t="n" s="8">
         <v>93.0</v>
@@ -26222,10 +28780,20 @@
       <c r="AF258" t="n" s="8">
         <v>116.0</v>
       </c>
+      <c r="AG258" t="n" s="8">
+        <v>99.0</v>
+      </c>
+      <c r="AH258" t="n" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="AI258" t="n" s="8">
+        <v>66.0</v>
+      </c>
+      <c r="AJ258"/>
     </row>
     <row r="259">
       <c r="A259" t="s" s="7">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B259" t="n" s="8">
         <v>2939.0</v>
@@ -26320,10 +28888,20 @@
       <c r="AF259" t="n" s="8">
         <v>2010.0</v>
       </c>
+      <c r="AG259" t="n" s="8">
+        <v>2054.0</v>
+      </c>
+      <c r="AH259" t="n" s="8">
+        <v>2041.0</v>
+      </c>
+      <c r="AI259" t="n" s="8">
+        <v>2009.0</v>
+      </c>
+      <c r="AJ259"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="7">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B260" t="n" s="8">
         <v>3032.0</v>
@@ -26418,10 +28996,20 @@
       <c r="AF260" t="n" s="8">
         <v>2126.0</v>
       </c>
+      <c r="AG260" t="n" s="8">
+        <v>2153.0</v>
+      </c>
+      <c r="AH260" t="n" s="8">
+        <v>2113.0</v>
+      </c>
+      <c r="AI260" t="n" s="8">
+        <v>2075.0</v>
+      </c>
+      <c r="AJ260"/>
     </row>
     <row r="261">
       <c r="A261" t="s" s="7">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B261" t="n" s="10">
         <v>1.9</v>
@@ -26516,10 +29104,20 @@
       <c r="AF261" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG261" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH261" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI261" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ261"/>
     </row>
     <row r="262">
       <c r="A262" t="s" s="7">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B262" t="n" s="8">
         <v>192.0</v>
@@ -26614,10 +29212,20 @@
       <c r="AF262" t="n" s="8">
         <v>485.0</v>
       </c>
+      <c r="AG262" t="n" s="8">
+        <v>269.0</v>
+      </c>
+      <c r="AH262" t="n" s="8">
+        <v>207.0</v>
+      </c>
+      <c r="AI262" t="n" s="8">
+        <v>209.0</v>
+      </c>
+      <c r="AJ262"/>
     </row>
     <row r="263">
       <c r="A263" t="s" s="7">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B263" t="n" s="8">
         <v>9705.0</v>
@@ -26712,10 +29320,20 @@
       <c r="AF263" t="n" s="8">
         <v>11260.0</v>
       </c>
+      <c r="AG263" t="n" s="8">
+        <v>11364.0</v>
+      </c>
+      <c r="AH263" t="n" s="8">
+        <v>11525.0</v>
+      </c>
+      <c r="AI263" t="n" s="8">
+        <v>11706.0</v>
+      </c>
+      <c r="AJ263"/>
     </row>
     <row r="264">
       <c r="A264" t="s" s="7">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B264" t="n" s="8">
         <v>9897.0</v>
@@ -26810,10 +29428,20 @@
       <c r="AF264" t="n" s="8">
         <v>11745.0</v>
       </c>
+      <c r="AG264" t="n" s="8">
+        <v>11633.0</v>
+      </c>
+      <c r="AH264" t="n" s="8">
+        <v>11732.0</v>
+      </c>
+      <c r="AI264" t="n" s="8">
+        <v>11915.0</v>
+      </c>
+      <c r="AJ264"/>
     </row>
     <row r="265">
       <c r="A265" t="s" s="7">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B265" t="n" s="10">
         <v>8.0</v>
@@ -26908,10 +29536,20 @@
       <c r="AF265" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG265" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH265" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI265" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ265"/>
     </row>
     <row r="266">
       <c r="A266" t="s" s="7">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B266" t="n" s="8">
         <v>58.0</v>
@@ -27006,10 +29644,20 @@
       <c r="AF266" t="n" s="8">
         <v>39.0</v>
       </c>
+      <c r="AG266" t="n" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="AH266" t="n" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="AI266" t="n" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="AJ266"/>
     </row>
     <row r="267">
       <c r="A267" t="s" s="7">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B267" t="n" s="8">
         <v>671.0</v>
@@ -27104,10 +29752,20 @@
       <c r="AF267" t="n" s="8">
         <v>908.0</v>
       </c>
+      <c r="AG267" t="n" s="8">
+        <v>911.0</v>
+      </c>
+      <c r="AH267" t="n" s="8">
+        <v>911.0</v>
+      </c>
+      <c r="AI267" t="n" s="8">
+        <v>920.0</v>
+      </c>
+      <c r="AJ267"/>
     </row>
     <row r="268">
       <c r="A268" t="s" s="7">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B268" t="n" s="8">
         <v>729.0</v>
@@ -27202,6 +29860,16 @@
       <c r="AF268" t="n" s="8">
         <v>947.0</v>
       </c>
+      <c r="AG268" t="n" s="8">
+        <v>947.0</v>
+      </c>
+      <c r="AH268" t="n" s="8">
+        <v>945.0</v>
+      </c>
+      <c r="AI268" t="n" s="8">
+        <v>962.0</v>
+      </c>
+      <c r="AJ268"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -27212,7 +29880,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (02:31:55 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (03:04:29 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
